--- a/作業管理システム_設計書/04.内部設計/02.プログラム設計/97.権限の制御.xlsx
+++ b/作業管理システム_設計書/04.内部設計/02.プログラム設計/97.権限の制御.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xserver\sagyokanri\作業管理システム_設計書\04.内部設計\03.データベース設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xserver\sagyokanri\作業管理システム_設計書\04.内部設計\02.プログラム設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E30BA1-1B00-4D85-976A-06BFDC0E5BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A0E0AE-8D3F-47ED-BC57-0FA72DF75826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="792" windowWidth="19656" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1176" windowWidth="19656" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="権限の制御" sheetId="1" r:id="rId1"/>
@@ -788,38 +788,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -828,9 +817,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1115,7 +1115,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1127,7 +1127,7 @@
     <col min="7" max="7" width="3.296875" style="1" customWidth="1"/>
     <col min="8" max="11" width="3.296875" style="2" customWidth="1"/>
     <col min="12" max="12" width="3.296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.69921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="3.5" style="1" customWidth="1"/>
     <col min="15" max="17" width="3.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="3.3984375" style="2" customWidth="1"/>
@@ -1139,76 +1139,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="24" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="18.600000000000001" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="13"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
@@ -1217,7 +1217,7 @@
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -1226,7 +1226,7 @@
       <c r="T3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1234,23 +1234,23 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="O4" s="25" t="s">
+      <c r="M4" s="15"/>
+      <c r="O4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="5"/>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26">
       <c r="C5" s="2" t="s">
@@ -1259,7 +1259,7 @@
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="15"/>
       <c r="P5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="Y5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="5"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26">
       <c r="D6" s="2" t="s">
@@ -1281,7 +1281,7 @@
       <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="15"/>
       <c r="Q6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1291,134 +1291,134 @@
       <c r="U6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="5"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26">
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z7" s="5"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26">
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="16"/>
       <c r="P8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z8" s="5"/>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26">
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="16"/>
       <c r="Q9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="5"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="16"/>
       <c r="O10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z10" s="5"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26">
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="16"/>
       <c r="P11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="5"/>
+      <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="14" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="14" t="s">
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="22" t="s">
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="O13" s="25" t="s">
+      <c r="M13" s="15"/>
+      <c r="O13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z13" s="5"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26">
       <c r="C14" s="2" t="s">
@@ -1433,7 +1433,7 @@
       <c r="L14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="15"/>
       <c r="P14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="Y14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z14" s="5"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26">
       <c r="D15" s="2" t="s">
@@ -1458,7 +1458,7 @@
       <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="15"/>
       <c r="Q15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="U15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="5"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26">
       <c r="D16" s="2" t="s">
@@ -1477,14 +1477,14 @@
       <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="16"/>
       <c r="Q16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z16" s="5"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="1:26">
       <c r="C17" s="4" t="s">
@@ -1493,14 +1493,14 @@
       <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="16"/>
       <c r="P17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z17" s="5"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:26">
       <c r="D18" s="2" t="s">
@@ -1509,105 +1509,105 @@
       <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="16"/>
       <c r="Q18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z18" s="5"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="1:26">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="16"/>
       <c r="O19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z19" s="5"/>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="23"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="6" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="15" t="s">
         <v>30</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="14" t="s">
+      <c r="T21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="5" t="s">
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="O22" s="26" t="s">
+      <c r="M22" s="15"/>
+      <c r="O22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="U22" s="25" t="s">
+      <c r="U22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z22" s="5"/>
+      <c r="Z22" s="19"/>
     </row>
     <row r="23" spans="1:26">
       <c r="C23" s="4" t="s">
@@ -1617,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="15"/>
       <c r="P23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="Y23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z23" s="5"/>
+      <c r="Z23" s="19"/>
     </row>
     <row r="24" spans="1:26">
       <c r="D24" s="2" t="s">
@@ -1639,114 +1639,114 @@
       <c r="H24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="15"/>
       <c r="Q24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z24" s="5"/>
+      <c r="Z24" s="19"/>
     </row>
     <row r="25" spans="1:26">
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="16"/>
       <c r="Q25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="5"/>
+      <c r="Z25" s="19"/>
     </row>
     <row r="26" spans="1:26">
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="16"/>
       <c r="P26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z26" s="5"/>
+      <c r="Z26" s="19"/>
     </row>
     <row r="27" spans="1:26">
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="16"/>
       <c r="Q27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="5"/>
+      <c r="Z27" s="19"/>
     </row>
     <row r="28" spans="1:26">
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="16"/>
       <c r="O28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z28" s="5"/>
+      <c r="Z28" s="19"/>
     </row>
     <row r="29" spans="1:26">
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="16"/>
       <c r="P29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T29" s="18"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="5"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="19"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="14" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="17" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="14" t="s">
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="22" t="s">
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1763,14 +1763,14 @@
       <c r="J31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="6"/>
+      <c r="M31" s="15"/>
       <c r="O31" s="4" t="s">
         <v>1</v>
       </c>
       <c r="U31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Z31" s="5"/>
+      <c r="Z31" s="19"/>
     </row>
     <row r="32" spans="1:26">
       <c r="C32" s="2" t="s">
@@ -1779,14 +1779,14 @@
       <c r="I32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="6"/>
+      <c r="M32" s="15"/>
       <c r="P32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z32" s="5"/>
+      <c r="Z32" s="19"/>
     </row>
     <row r="33" spans="1:26">
       <c r="D33" s="2" t="s">
@@ -1795,14 +1795,14 @@
       <c r="J33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="6"/>
+      <c r="M33" s="15"/>
       <c r="Q33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z33" s="5"/>
+      <c r="Z33" s="19"/>
     </row>
     <row r="34" spans="1:26">
       <c r="D34" s="2" t="s">
@@ -1811,14 +1811,14 @@
       <c r="J34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="7"/>
+      <c r="M34" s="16"/>
       <c r="Q34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="W34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z34" s="5"/>
+      <c r="Z34" s="19"/>
     </row>
     <row r="35" spans="1:26">
       <c r="C35" s="2" t="s">
@@ -1827,14 +1827,14 @@
       <c r="I35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M35" s="7"/>
+      <c r="M35" s="16"/>
       <c r="P35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z35" s="5"/>
+      <c r="Z35" s="19"/>
     </row>
     <row r="36" spans="1:26">
       <c r="D36" s="2" t="s">
@@ -1843,14 +1843,14 @@
       <c r="J36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="7"/>
+      <c r="M36" s="16"/>
       <c r="Q36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="W36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z36" s="5"/>
+      <c r="Z36" s="19"/>
     </row>
     <row r="37" spans="1:26">
       <c r="B37" s="2" t="s">
@@ -1859,106 +1859,106 @@
       <c r="H37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="7"/>
+      <c r="M37" s="16"/>
       <c r="O37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z37" s="5"/>
+      <c r="Z37" s="19"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19" t="s">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19" t="s">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19" t="s">
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="23"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="20"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="14" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="17" t="s">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="N39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="14" t="s">
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="22" t="s">
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:26">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M40" s="6"/>
-      <c r="O40" s="26" t="s">
+      <c r="M40" s="15"/>
+      <c r="O40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="U40" s="27" t="s">
+      <c r="U40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Z40" s="5"/>
+      <c r="Z40" s="19"/>
     </row>
     <row r="41" spans="1:26">
       <c r="C41" s="4" t="s">
@@ -1970,7 +1970,7 @@
       <c r="I41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M41" s="6"/>
+      <c r="M41" s="15"/>
       <c r="P41" s="4" t="s">
         <v>10</v>
       </c>
@@ -1980,29 +1980,29 @@
       <c r="V41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z41" s="5"/>
+      <c r="Z41" s="19"/>
     </row>
     <row r="42" spans="1:26">
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J42" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="6"/>
+      <c r="M42" s="15"/>
       <c r="Q42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W42" s="25" t="s">
+      <c r="W42" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z42" s="5"/>
+      <c r="Z42" s="19"/>
     </row>
     <row r="43" spans="1:26">
       <c r="D43" s="2" t="s">
@@ -2011,14 +2011,14 @@
       <c r="J43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="7"/>
+      <c r="M43" s="16"/>
       <c r="Q43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="W43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z43" s="5"/>
+      <c r="Z43" s="19"/>
     </row>
     <row r="44" spans="1:26">
       <c r="C44" s="2" t="s">
@@ -2027,14 +2027,14 @@
       <c r="I44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="7"/>
+      <c r="M44" s="16"/>
       <c r="P44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z44" s="5"/>
+      <c r="Z44" s="19"/>
     </row>
     <row r="45" spans="1:26">
       <c r="D45" s="2" t="s">
@@ -2043,14 +2043,14 @@
       <c r="J45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M45" s="7"/>
+      <c r="M45" s="16"/>
       <c r="Q45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z45" s="5"/>
+      <c r="Z45" s="19"/>
     </row>
     <row r="46" spans="1:26">
       <c r="B46" s="2" t="s">
@@ -2059,53 +2059,60 @@
       <c r="H46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="7"/>
+      <c r="M46" s="16"/>
       <c r="O46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z46" s="5"/>
+      <c r="Z46" s="19"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19" t="s">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19" t="s">
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="23"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="T2:Y2"/>
     <mergeCell ref="M39:M47"/>
     <mergeCell ref="Z39:Z47"/>
     <mergeCell ref="Z12:Z20"/>
@@ -2116,13 +2123,6 @@
     <mergeCell ref="Z3:Z11"/>
     <mergeCell ref="M21:M29"/>
     <mergeCell ref="Z21:Z29"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="T2:Y2"/>
     <mergeCell ref="M12:M20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
